--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2984" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13154A51-A1FA-4213-9E37-75721720C01E}"/>
+  <xr:revisionPtr revIDLastSave="2989" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32C00EF-8141-45D0-AF0B-2E4504604D01}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" activeCellId="2" sqref="A2 A4 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,8 +5975,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6815,7 +6815,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -8652,7 +8652,7 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2989" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32C00EF-8141-45D0-AF0B-2E4504604D01}"/>
+  <xr:revisionPtr revIDLastSave="3105" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92919290-3759-4354-8D58-644A96D1106B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2019" sheetId="26" r:id="rId10"/>
     <sheet name="2020" sheetId="27" r:id="rId11"/>
     <sheet name="2021" sheetId="28" r:id="rId12"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
-    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId14"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId15"/>
+    <sheet name="2022" sheetId="35" r:id="rId13"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
+    <sheet name="YTD Wins-Losses" sheetId="36" r:id="rId15"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="509">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1571,6 +1572,9 @@
   </si>
   <si>
     <t>MEXICAN OPEN</t>
+  </si>
+  <si>
+    <t>4-6 7-5 6-1</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +1864,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -1900,15 +1904,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$13</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1945,12 +1952,15 @@
                 <c:pt idx="11">
                   <c:v>42</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DB8-42DB-8E28-295BAA97FC9E}"/>
+              <c16:uniqueId val="{00000000-1C33-4366-900C-B020DB1821CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1980,10 +1990,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2020,15 +2030,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$13</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2065,12 +2078,15 @@
                 <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8DB8-42DB-8E28-295BAA97FC9E}"/>
+              <c16:uniqueId val="{00000001-1C33-4366-900C-B020DB1821CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2084,11 +2100,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2041982416"/>
-        <c:axId val="2041972016"/>
+        <c:axId val="286573679"/>
+        <c:axId val="286574095"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2041982416"/>
+        <c:axId val="286573679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041972016"/>
+        <c:crossAx val="286574095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2194,7 +2210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2041972016"/>
+        <c:axId val="286574095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,8 +2251,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER OF</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> MATCHES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2300,7 +2321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041982416"/>
+        <c:crossAx val="286573679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2410,16 +2431,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Ashleigh Barty (AUSTRALIA):</a:t>
+              <a:t>Ashleigh</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> Barty (AUSTRALIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Winning Percentile Range</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2507,16 +2525,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -2553,15 +2570,18 @@
                 <c:pt idx="11">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$13</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2598,13 +2618,16 @@
                 <c:pt idx="11">
                   <c:v>0.80952380952380953</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DCBD-4B24-869C-3D29D54C5391}"/>
+              <c16:uniqueId val="{00000000-19FC-467B-AEF8-5038D15776EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2618,11 +2641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120696272"/>
-        <c:axId val="120704176"/>
+        <c:axId val="1657469104"/>
+        <c:axId val="1657462864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120696272"/>
+        <c:axId val="1657469104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,7 +2743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120704176"/>
+        <c:crossAx val="1657462864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2728,7 +2751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120704176"/>
+        <c:axId val="1657462864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120696272"/>
+        <c:crossAx val="1657469104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2878,7 +2901,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3493,7 +3516,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3601,11 +3624,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3616,11 +3634,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3652,9 +3665,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4009,7 +4019,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8E78A7E1-426E-441F-BEA3-FDDBAA674322}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07085E23-98FE-44BD-A2F4-D1FE2F30CE02}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,14 +4031,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{691D8EA0-9471-430E-AC1B-26342EEACF9C}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95A0C735-E560-482D-A09D-D29EBA3244D5}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4042,7 +4051,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63C5551-2FEB-4699-8B31-6E235E6C1F9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525F1B70-D57C-4DAD-AA35-249821834D78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,13 +4078,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE074BA1-F811-45A1-BB84-806A93FAC276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CD16A6-9AC6-42EB-91B7-549824C9D185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5681,7 +5690,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,8 +5984,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6809,14 +6818,134 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47871AC8-94AB-4CC5-BC2F-98020DC69D03}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7101,57 +7230,78 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="7">
-        <f>SUM(B2:B13)</f>
-        <v>123</v>
-      </c>
-      <c r="C14" s="7">
-        <f>SUM(C2:C13)</f>
-        <v>13</v>
-      </c>
-      <c r="D14" s="7">
-        <f>SUM(D2:D13)</f>
-        <v>294</v>
-      </c>
-      <c r="E14" s="7">
-        <f>SUM(E2:E13)</f>
-        <v>101</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <f>(D14-E14)/D14</f>
-        <v>0.65646258503401356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>490</v>
+        <v>60</v>
       </c>
       <c r="B15" s="7">
-        <f>AVERAGE(B2:B13)</f>
-        <v>10.25</v>
+        <f>SUM(B2:B14)</f>
+        <v>124</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" ref="C15:E15" si="2">AVERAGE(C2:C13)</f>
-        <v>1.0833333333333333</v>
+        <f>SUM(C2:C14)</f>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="2"/>
-        <v>24.5</v>
+        <f>SUM(D2:D14)</f>
+        <v>298</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="2"/>
-        <v>8.4166666666666661</v>
+        <f>SUM(E2:E14)</f>
+        <v>101</v>
       </c>
       <c r="F15" s="8">
         <f>(D15-E15)/D15</f>
-        <v>0.65646258503401367</v>
+        <v>0.66107382550335569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="7">
+        <f>AVERAGE(B2:B14)</f>
+        <v>9.5384615384615383</v>
+      </c>
+      <c r="C16" s="7">
+        <f>AVERAGE(C2:C14)</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="D16" s="7">
+        <f>AVERAGE(D2:D14)</f>
+        <v>22.923076923076923</v>
+      </c>
+      <c r="E16" s="7">
+        <f>AVERAGE(E2:E14)</f>
+        <v>7.7692307692307692</v>
+      </c>
+      <c r="F16" s="8">
+        <f>(D16-E16)/D16</f>
+        <v>0.66107382550335569</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4:F13">
+  <conditionalFormatting sqref="F4:F14">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -8653,7 +8803,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3105" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92919290-3759-4354-8D58-644A96D1106B}"/>
+  <xr:revisionPtr revIDLastSave="3152" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33883D9-81B4-4B8D-8461-C4540D434892}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="510">
   <si>
     <t>Semifinal</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Kiki Bertens (NETHERLANDS)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Alizé Cornet (FRANCE)</t>
   </si>
   <si>
@@ -1241,9 +1238,6 @@
     <t>Yulia Putintseva (KAZAKHSTAN)</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Danielle Collins (USA)</t>
   </si>
   <si>
@@ -1397,9 +1391,6 @@
     <t>6-4 1-6 6-3</t>
   </si>
   <si>
-    <t>Paula Badosa Gibert (SPAIN)</t>
-  </si>
-  <si>
     <t>6-1 3-6 6-3</t>
   </si>
   <si>
@@ -1575,6 +1566,18 @@
   </si>
   <si>
     <t>4-6 7-5 6-1</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Paula Badosa (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1956,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4454,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -4465,7 +4468,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4474,13 +4477,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>173</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4488,13 +4491,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>175</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4502,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>21</v>
@@ -4527,7 +4530,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4536,7 +4539,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>21</v>
@@ -4558,8 +4561,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,7 +4597,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
@@ -4603,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -4635,7 +4638,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -4657,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,7 +4676,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4693,7 +4696,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -4707,7 +4710,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -4721,13 +4724,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4741,7 +4744,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,35 +4763,35 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -4797,7 +4800,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -4811,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -4831,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,13 +4848,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -4893,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4901,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
@@ -4921,18 +4924,18 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -4949,12 +4952,12 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4963,7 +4966,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>507</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -4977,13 +4980,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>398</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,13 +4994,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -5025,13 +5028,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5059,7 +5062,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
@@ -5073,13 +5076,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5087,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5101,13 +5104,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
@@ -5129,13 +5132,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -5154,7 +5157,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -5163,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5177,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -5239,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -5250,10 +5253,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5267,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5281,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -5292,7 +5295,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5301,18 +5304,18 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5327,7 +5330,7 @@
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5335,13 +5338,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5349,13 +5352,13 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5389,21 +5392,21 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5411,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>22</v>
@@ -5425,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -5445,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -5459,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -5473,13 +5476,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>21</v>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -5507,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5521,13 +5524,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,7 +5544,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,7 +5558,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5563,24 +5566,24 @@
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -5608,16 +5611,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5631,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5650,7 +5653,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -5662,12 +5665,12 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>22</v>
@@ -5734,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -5753,7 +5756,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -5762,13 +5765,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5778,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -5794,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5810,7 +5813,7 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -5830,13 +5833,13 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,7 +5847,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5858,7 +5861,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5872,13 +5875,13 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,7 +5895,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5900,18 +5903,18 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
@@ -5934,13 +5937,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -5948,13 +5951,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -5984,8 +5987,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6020,7 +6023,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
@@ -6029,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6043,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -6057,13 +6060,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6071,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,7 +6088,7 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -6105,7 +6108,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6119,13 +6122,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6133,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -6147,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -6161,18 +6164,18 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6181,7 +6184,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -6201,13 +6204,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6215,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -6235,7 +6238,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6243,13 +6246,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6271,18 +6274,18 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6291,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6305,13 +6308,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6319,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6345,7 +6348,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6359,7 +6362,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6373,7 +6376,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,18 +6384,18 @@
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6401,7 +6404,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -6415,13 +6418,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
         <v>446</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6449,7 +6452,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6457,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6471,18 +6474,18 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -6491,13 +6494,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6519,13 +6522,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6539,13 +6542,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
         <v>456</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6553,13 +6556,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6573,13 +6576,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6587,7 +6590,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6601,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6615,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6629,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6649,7 +6652,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6663,12 +6666,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6677,7 +6680,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6688,7 +6691,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6697,13 +6700,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6753,7 +6756,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6773,13 +6776,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6787,13 +6790,13 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6801,13 +6804,13 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -6822,10 +6825,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6860,7 +6863,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>20</v>
@@ -6869,13 +6872,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6883,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -6897,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6911,7 +6914,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6929,6 +6932,99 @@
       </c>
       <c r="C7" t="s">
         <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -6944,8 +7040,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6960,22 +7056,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7234,13 +7330,13 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -7256,15 +7352,15 @@
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="7">
         <f>SUM(C2:C14)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
         <f>SUM(D2:D14)</f>
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E15" s="7">
         <f>SUM(E2:E14)</f>
@@ -7272,24 +7368,24 @@
       </c>
       <c r="F15" s="8">
         <f>(D15-E15)/D15</f>
-        <v>0.66107382550335569</v>
+        <v>0.66885245901639345</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B16" s="7">
         <f>AVERAGE(B2:B14)</f>
-        <v>9.5384615384615383</v>
+        <v>9.615384615384615</v>
       </c>
       <c r="C16" s="7">
         <f>AVERAGE(C2:C14)</f>
-        <v>1.0769230769230769</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="D16" s="7">
         <f>AVERAGE(D2:D14)</f>
-        <v>22.923076923076923</v>
+        <v>23.46153846153846</v>
       </c>
       <c r="E16" s="7">
         <f>AVERAGE(E2:E14)</f>
@@ -7297,7 +7393,7 @@
       </c>
       <c r="F16" s="8">
         <f>(D16-E16)/D16</f>
-        <v>0.66107382550335569</v>
+        <v>0.66885245901639334</v>
       </c>
     </row>
   </sheetData>
@@ -7367,7 +7463,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7376,7 +7472,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -7390,7 +7486,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -7404,18 +7500,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7424,7 +7520,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -7438,7 +7534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7452,7 +7548,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7466,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -7480,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
@@ -7491,7 +7587,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7500,7 +7596,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -7514,7 +7610,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -7528,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -7548,7 +7644,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
@@ -7627,7 +7723,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -7656,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -7667,7 +7763,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7676,7 +7772,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7690,7 +7786,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -7704,7 +7800,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -7718,7 +7814,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -7732,13 +7828,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7746,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -7760,7 +7856,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -7771,7 +7867,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7780,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
@@ -7795,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -7810,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -7825,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -7840,7 +7936,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -7852,7 +7948,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -7861,7 +7957,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -7875,7 +7971,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -7890,13 +7986,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7904,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
@@ -7918,7 +8014,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -7949,7 +8045,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -7958,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -7972,7 +8068,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -7986,13 +8082,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8014,7 +8110,7 @@
         <v>51</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -8045,7 +8141,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8054,7 +8150,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>22</v>
@@ -8068,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
@@ -8083,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -8112,7 +8208,7 @@
         <v>51</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
@@ -8123,7 +8219,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8132,7 +8228,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -8146,18 +8242,18 @@
         <v>3</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8166,7 +8262,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -8180,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -8208,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8222,7 +8318,7 @@
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>22</v>
@@ -8233,7 +8329,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8242,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -8256,7 +8352,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -8270,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -8284,18 +8380,18 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8304,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -8318,7 +8414,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>22</v>
@@ -8333,7 +8429,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>21</v>
@@ -8393,7 +8489,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8402,13 +8498,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8428,12 +8524,12 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -8442,7 +8538,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -8470,7 +8566,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -8481,7 +8577,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8504,7 +8600,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -8515,7 +8611,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8524,7 +8620,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -8538,7 +8634,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
@@ -8549,7 +8645,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8558,7 +8654,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>21</v>
@@ -8569,7 +8665,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8578,13 +8674,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8592,7 +8688,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -8606,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -8620,18 +8716,18 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -8663,7 +8759,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,7 +8767,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -8682,7 +8778,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -8691,7 +8787,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -8731,7 +8827,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -8745,7 +8841,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>21</v>
@@ -8756,7 +8852,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -8765,7 +8861,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -8779,13 +8875,13 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -8847,13 +8943,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8861,7 +8957,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -8872,7 +8968,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -8881,7 +8977,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8889,7 +8985,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -8909,7 +9005,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8923,7 +9019,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -8934,7 +9030,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -8943,18 +9039,18 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -8963,7 +9059,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -8977,21 +9073,21 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -9005,18 +9101,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9025,7 +9121,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -9039,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -9050,10 +9146,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -9067,18 +9163,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9087,13 +9183,13 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9101,7 +9197,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9113,10 +9209,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
@@ -9130,18 +9226,18 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9150,13 +9246,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9164,21 +9260,21 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
@@ -9189,7 +9285,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -9198,13 +9294,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -9212,7 +9308,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -9223,16 +9319,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9240,7 +9336,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -9260,7 +9356,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
@@ -9271,7 +9367,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -9280,7 +9376,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -9300,7 +9396,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -9314,7 +9410,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -9325,16 +9421,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9348,13 +9444,13 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
         <v>255</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9362,7 +9458,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -9373,16 +9469,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>258</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9467,22 +9563,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9536,7 +9632,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9545,7 +9641,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -9559,7 +9655,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -9570,16 +9666,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9683,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -9601,13 +9697,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9615,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -9629,18 +9725,18 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -9649,7 +9745,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -9663,7 +9759,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -9674,16 +9770,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9691,7 +9787,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -9705,13 +9801,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9725,7 +9821,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9739,13 +9835,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>274</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9753,7 +9849,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -9764,7 +9860,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -9773,13 +9869,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9787,7 +9883,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
@@ -9801,13 +9897,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9815,7 +9911,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9829,13 +9925,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -9897,7 +9993,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -9932,7 +10028,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -9941,13 +10037,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>284</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9961,7 +10057,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9975,7 +10071,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -9989,13 +10085,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10003,18 +10099,18 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -10026,12 +10122,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -10040,7 +10136,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -10054,13 +10150,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10068,13 +10164,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10082,7 +10178,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -10096,13 +10192,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>295</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10110,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -10124,7 +10220,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -10144,13 +10240,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,7 +10254,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -10169,7 +10265,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -10178,13 +10274,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10192,18 +10288,18 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -10212,7 +10308,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -10226,13 +10322,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>305</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,13 +10336,13 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10268,13 +10364,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10288,7 +10384,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -10299,7 +10395,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -10308,13 +10404,13 @@
         <v>4</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10322,7 +10418,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -10336,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -10347,7 +10443,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -10356,13 +10452,13 @@
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10376,7 +10472,7 @@
         <v>22</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10390,7 +10486,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10398,13 +10494,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10438,12 +10534,12 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10452,7 +10548,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -10466,13 +10562,13 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10480,13 +10576,13 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
         <v>320</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10494,13 +10590,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
+        <v>321</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
         <v>322</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -10508,18 +10604,18 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -10528,13 +10624,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10542,7 +10638,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -10556,7 +10652,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -10576,7 +10672,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10584,7 +10680,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -10604,13 +10700,13 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>330</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10618,13 +10714,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>332</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10643,7 +10739,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -10652,13 +10748,13 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10666,13 +10762,13 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10680,13 +10776,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10700,7 +10796,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10708,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>22</v>
@@ -10722,18 +10818,18 @@
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -10753,13 +10849,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -10773,16 +10869,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
         <v>345</v>
       </c>
-      <c r="D74" t="s">
-        <v>346</v>
-      </c>
       <c r="E74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10790,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -10813,7 +10909,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -10858,7 +10954,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -10872,7 +10968,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -10881,7 +10977,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -10895,13 +10991,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10923,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -10957,13 +11053,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -10977,7 +11073,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10985,7 +11081,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -10996,13 +11092,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -11013,18 +11109,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11033,7 +11129,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>21</v>
@@ -11053,13 +11149,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>357</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11067,7 +11163,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -11092,7 +11188,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11101,7 +11197,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -11115,7 +11211,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
@@ -11129,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -11140,13 +11236,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
@@ -11157,7 +11253,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -11168,7 +11264,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11177,7 +11273,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -11191,18 +11287,18 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -11217,12 +11313,12 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -11231,7 +11327,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -11245,7 +11341,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -11259,7 +11355,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -11273,13 +11369,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11293,7 +11389,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -11307,7 +11403,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
@@ -11318,7 +11414,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -11341,7 +11437,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -11355,7 +11451,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -11369,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>22</v>
@@ -11383,18 +11479,18 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -11403,7 +11499,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -11423,12 +11519,12 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -11451,7 +11547,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -11465,7 +11561,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -11499,7 +11595,7 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -11513,7 +11609,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -11524,7 +11620,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11533,13 +11629,13 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>377</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11547,13 +11643,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>379</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -11561,7 +11657,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
@@ -11595,12 +11691,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11609,7 +11705,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
@@ -11657,7 +11753,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -11671,7 +11767,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -11685,7 +11781,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>22</v>
@@ -11710,7 +11806,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -11719,13 +11815,13 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11744,7 +11840,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -11753,7 +11849,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>22</v>
@@ -11767,13 +11863,13 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11787,7 +11883,7 @@
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -11795,13 +11891,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11809,27 +11905,27 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>22</v>
@@ -11840,10 +11936,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>21</v>
@@ -11871,7 +11967,7 @@
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3152" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33883D9-81B4-4B8D-8461-C4540D434892}"/>
+  <xr:revisionPtr revIDLastSave="3154" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902C66A3-134C-4867-9614-53AC5AE20B55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="2021" sheetId="28" r:id="rId12"/>
     <sheet name="2022" sheetId="35" r:id="rId13"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="YTD Wins-Losses" sheetId="36" r:id="rId15"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId15"/>
     <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -650,9 +650,6 @@
     <t>Nastassja Burnett (ITALY)</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>Kurumi Nara (JAPAN)</t>
   </si>
   <si>
@@ -1578,6 +1575,9 @@
   </si>
   <si>
     <t>6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
   </si>
 </sst>
 </file>
@@ -1666,19 +1666,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4110,6 +4107,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4448,7 +4449,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4468,7 +4469,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4596,29 +4597,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>385</v>
+      <c r="D2" t="s">
+        <v>384</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -4627,14 +4628,14 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -4643,30 +4644,30 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>387</v>
+      <c r="F5" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
@@ -4675,15 +4676,13 @@
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>386</v>
+      <c r="F6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4692,35 +4691,35 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -4729,12 +4728,12 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>287</v>
+      <c r="F10" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
@@ -4743,12 +4742,12 @@
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>355</v>
+      <c r="F11" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
@@ -4763,19 +4762,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,17 +4785,17 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
@@ -4810,11 +4809,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -4824,7 +4823,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
@@ -4834,7 +4833,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4854,7 +4853,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -4896,7 +4895,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
@@ -4924,12 +4923,12 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -4952,12 +4951,12 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4966,7 +4965,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -4980,13 +4979,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4994,13 +4993,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -5019,7 +5018,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -5028,13 +5027,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,7 +5081,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5090,7 +5089,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5110,7 +5109,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
@@ -5138,7 +5137,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,7 +5145,7 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -5157,7 +5156,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -5166,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5180,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -5242,7 +5241,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -5253,10 +5252,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5270,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5295,7 +5294,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5310,12 +5309,12 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5330,7 +5329,7 @@
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5338,13 +5337,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,7 +5357,7 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5392,21 +5391,21 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5428,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
@@ -5439,7 +5438,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -5448,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -5482,7 +5481,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5501,7 +5500,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -5510,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5524,13 +5523,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5544,7 +5543,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5558,7 +5557,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5572,18 +5571,18 @@
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -5597,7 +5596,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -5611,16 +5610,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
+        <v>416</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
         <v>417</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5634,7 +5633,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5653,7 +5652,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -5665,12 +5664,12 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>22</v>
@@ -5727,22 +5726,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>390</v>
+      <c r="D2" t="s">
+        <v>389</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5755,23 +5754,23 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>492</v>
+      <c r="D4" t="s">
+        <v>491</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>382</v>
+      <c r="F4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5780,13 +5779,13 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>310</v>
+      <c r="D5" t="s">
+        <v>309</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5802,14 +5801,14 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>422</v>
+      <c r="F6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
@@ -5818,7 +5817,7 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5826,20 +5825,20 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5847,7 +5846,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5861,7 +5860,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5871,7 +5870,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
@@ -5881,7 +5880,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5895,7 +5894,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,14 +5908,14 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
@@ -5933,17 +5932,17 @@
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -5957,7 +5956,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -5987,8 +5986,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,17 +6021,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6066,7 +6065,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6074,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6108,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6122,13 +6121,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6170,12 +6169,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6204,13 +6203,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>435</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6238,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6252,7 +6251,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6280,12 +6279,12 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6294,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6314,7 +6313,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6322,7 +6321,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6333,7 +6332,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6348,7 +6347,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6362,7 +6361,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6376,7 +6375,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,12 +6389,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6418,13 +6417,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,7 +6431,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6452,7 +6451,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6460,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6480,12 +6479,12 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -6494,13 +6493,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6508,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6522,13 +6521,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,13 +6541,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6556,13 +6555,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,13 +6575,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>458</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,7 +6589,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6604,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6618,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6632,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6652,7 +6651,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,12 +6665,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6680,7 +6679,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6691,7 +6690,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6700,13 +6699,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
+        <v>488</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
         <v>489</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6756,7 +6755,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6776,13 +6775,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6790,13 +6789,13 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
         <v>499</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6810,7 +6809,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6862,23 +6861,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6900,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6914,7 +6913,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6934,13 +6933,13 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6948,7 +6947,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7004,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -7024,7 +7023,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -7040,7 +7039,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7059,10 +7058,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>131</v>
@@ -7075,43 +7074,43 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="1">
         <f>(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1">
         <f>(D3-E3)/D3</f>
         <v>0.5</v>
       </c>
@@ -7350,48 +7349,48 @@
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
         <v>125</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
         <v>305</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
         <v>101</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
         <v>0.66885245901639345</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B16" s="7">
+        <v>486</v>
+      </c>
+      <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
         <v>9.615384615384615</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
         <v>1.1538461538461537</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
         <v>23.46153846153846</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
         <v>7.7692307692307692</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
         <v>0.66885245901639334</v>
       </c>
@@ -7463,7 +7462,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7471,13 +7470,13 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7511,7 +7510,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7534,7 +7533,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7587,7 +7586,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7595,13 +7594,13 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7609,13 +7608,13 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7623,13 +7622,13 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>189</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7649,7 +7648,7 @@
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7763,7 +7762,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7827,13 +7826,13 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7841,13 +7840,13 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7855,7 +7854,7 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -7867,7 +7866,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7884,7 +7883,7 @@
       <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -7899,7 +7898,7 @@
       <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -7914,7 +7913,7 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -7929,7 +7928,7 @@
       <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -7944,11 +7943,11 @@
       <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -7979,7 +7978,7 @@
       <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -8013,13 +8012,13 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8045,7 +8044,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -8067,13 +8066,13 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" t="s">
         <v>157</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8087,7 +8086,7 @@
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8101,7 +8100,7 @@
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8109,13 +8108,13 @@
       <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" t="s">
         <v>116</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8141,7 +8140,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8172,7 +8171,7 @@
       <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
@@ -8201,25 +8200,25 @@
       <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8227,13 +8226,13 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8241,19 +8240,19 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8304,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8329,7 +8328,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8391,7 +8390,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8422,7 +8421,7 @@
       <c r="F59" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -8437,7 +8436,7 @@
       <c r="F60" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8577,7 +8576,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8611,7 +8610,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8645,7 +8644,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8665,7 +8664,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8674,13 +8673,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8688,7 +8687,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -8702,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -8716,18 +8715,18 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -8759,7 +8758,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8767,7 +8766,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -8778,7 +8777,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -8787,7 +8786,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -8827,7 +8826,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -8852,7 +8851,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -8861,7 +8860,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -8875,13 +8874,13 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -8943,13 +8942,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8968,7 +8967,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -8977,7 +8976,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8985,7 +8984,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -9005,7 +9004,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9019,7 +9018,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -9030,7 +9029,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -9039,18 +9038,18 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9073,21 +9072,21 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -9101,18 +9100,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9121,7 +9120,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -9135,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -9146,10 +9145,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -9163,18 +9162,18 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9183,13 +9182,13 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9197,7 +9196,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9205,14 +9204,14 @@
       <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
@@ -9226,18 +9225,18 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9246,13 +9245,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9260,21 +9259,21 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
@@ -9285,7 +9284,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -9294,13 +9293,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -9308,7 +9307,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -9319,7 +9318,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
         <v>140</v>
@@ -9328,7 +9327,7 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9336,7 +9335,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -9367,7 +9366,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -9376,7 +9375,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -9396,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -9410,7 +9409,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -9421,16 +9420,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9444,13 +9443,13 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
         <v>254</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9458,7 +9457,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -9469,16 +9468,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>257</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9632,7 +9631,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9641,7 +9640,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -9655,7 +9654,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -9666,16 +9665,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9683,7 +9682,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -9697,13 +9696,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9711,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -9731,12 +9730,12 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -9745,7 +9744,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -9759,7 +9758,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -9770,16 +9769,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9787,7 +9786,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -9801,13 +9800,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9821,7 +9820,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9835,13 +9834,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>273</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9849,7 +9848,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -9860,7 +9859,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -9869,7 +9868,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -9883,7 +9882,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
@@ -9903,7 +9902,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9911,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9931,7 +9930,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9983,22 +9982,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>282</v>
+      <c r="D2" t="s">
+        <v>281</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10008,13 +10007,13 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10037,13 +10036,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>283</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10057,7 +10056,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10071,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -10091,11 +10090,11 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -10105,12 +10104,12 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -10122,7 +10121,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10136,7 +10135,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -10150,27 +10149,27 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10178,7 +10177,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -10192,13 +10191,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>294</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10206,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -10220,7 +10219,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -10240,13 +10239,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10254,7 +10253,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -10265,7 +10264,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -10274,13 +10273,13 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10294,12 +10293,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -10308,7 +10307,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -10322,27 +10321,27 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10364,13 +10363,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,7 +10383,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -10395,35 +10394,35 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>309</v>
+      <c r="F36" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>308</v>
+      <c r="D37" t="s">
+        <v>307</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10437,42 +10436,42 @@
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
         <v>310</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>312</v>
+      <c r="F41" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,8 +10484,8 @@
       <c r="E42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>313</v>
+      <c r="F42" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10499,8 +10498,8 @@
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>314</v>
+      <c r="F43" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10534,12 +10533,12 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10548,7 +10547,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -10568,7 +10567,7 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10576,27 +10575,27 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
         <v>321</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -10610,12 +10609,12 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -10624,13 +10623,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10638,7 +10637,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -10652,7 +10651,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -10662,7 +10661,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
@@ -10672,7 +10671,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10680,7 +10679,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -10700,13 +10699,13 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>329</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10714,17 +10713,17 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>331</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
+      <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
@@ -10739,7 +10738,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -10748,17 +10747,17 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
@@ -10768,7 +10767,7 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10776,13 +10775,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10796,7 +10795,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10818,23 +10817,23 @@
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
@@ -10849,13 +10848,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -10869,16 +10868,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" t="s">
         <v>344</v>
       </c>
-      <c r="D74" t="s">
-        <v>345</v>
-      </c>
       <c r="E74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10886,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -10944,22 +10943,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>347</v>
+      <c r="D2" t="s">
+        <v>346</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10968,68 +10967,68 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>507</v>
+      <c r="D7" t="s">
+        <v>506</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -11059,7 +11058,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11073,7 +11072,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11092,13 +11091,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -11109,18 +11108,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11149,13 +11148,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>356</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11188,7 +11187,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11225,7 +11224,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -11236,13 +11235,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
@@ -11253,7 +11252,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -11264,7 +11263,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11273,7 +11272,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -11287,18 +11286,18 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -11313,12 +11312,12 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -11327,7 +11326,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -11341,7 +11340,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -11355,7 +11354,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -11369,13 +11368,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11389,7 +11388,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -11403,7 +11402,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
@@ -11414,7 +11413,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -11437,7 +11436,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -11451,7 +11450,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -11485,12 +11484,12 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -11499,7 +11498,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -11519,12 +11518,12 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -11547,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -11561,7 +11560,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -11609,7 +11608,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -11620,7 +11619,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11629,13 +11628,13 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
+        <v>375</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>376</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11643,13 +11642,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>378</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -11691,12 +11690,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11705,7 +11704,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
@@ -11753,7 +11752,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -11767,7 +11766,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -11806,7 +11805,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -11815,13 +11814,13 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11840,7 +11839,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -11863,13 +11862,13 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11883,7 +11882,7 @@
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -11891,13 +11890,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11911,21 +11910,21 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>22</v>
@@ -11936,7 +11935,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D85" t="s">
         <v>138</v>
@@ -11967,7 +11966,7 @@
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3154" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902C66A3-134C-4867-9614-53AC5AE20B55}"/>
+  <xr:revisionPtr revIDLastSave="3176" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A732BC27-A2F0-404E-A6C6-D3CB032477A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="512">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1578,6 +1578,12 @@
   </si>
   <si>
     <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
   </si>
 </sst>
 </file>
@@ -4022,7 +4028,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07085E23-98FE-44BD-A2F4-D1FE2F30CE02}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4045,7 +4051,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4105,10 +4111,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4414,20 +4416,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" activeCellId="2" sqref="A2 A4 A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>468</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>469</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -4562,21 +4564,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4596,7 +4598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4616,7 +4618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4632,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4648,7 +4650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4664,7 +4666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4680,11 +4682,11 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>502</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>360</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5140,7 +5142,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5230,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5250,7 +5252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>403</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5292,9 +5294,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5312,7 +5314,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>487</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5374,7 +5376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>403</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5456,7 +5458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>415</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5608,7 +5610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5622,7 +5624,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +5638,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5692,20 +5694,20 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5753,7 +5755,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>420</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5789,7 +5791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5805,7 +5807,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5821,7 +5823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>428</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5986,21 +5988,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6020,7 +6022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6158,7 +6160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>509</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>456</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6392,9 +6394,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6412,7 +6414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6426,7 +6428,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6440,7 +6442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6564,7 +6566,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6612,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>466</v>
       </c>
@@ -6688,7 +6690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>487</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6784,7 +6786,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6827,20 +6829,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6860,7 +6862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>420</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7043,17 +7045,17 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7240,7 +7242,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7324,7 +7326,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>486</v>
       </c>
@@ -7396,8 +7398,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4:F14">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7405,8 +7407,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F4:F14">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7430,17 +7432,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>471</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>472</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>473</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7632,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7670,17 +7672,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7700,7 +7702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7740,7 +7742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7836,7 +7838,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>471</v>
       </c>
@@ -7885,7 +7887,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7900,7 +7902,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7915,7 +7917,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7930,7 +7932,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7945,7 +7947,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>468</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7980,7 +7982,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>474</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8090,7 +8092,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8118,7 +8120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>475</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8173,7 +8175,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8202,7 +8204,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>476</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8250,7 +8252,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>470</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>477</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8360,7 +8362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>478</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8423,7 +8425,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8456,17 +8458,17 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8506,7 +8508,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8560,7 +8562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>479</v>
       </c>
@@ -8594,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>509</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>481</v>
       </c>
@@ -8682,7 +8684,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8710,7 +8712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8897,21 +8899,21 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8965,7 +8967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>503</v>
       </c>
@@ -9067,7 +9069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9081,7 +9083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>480</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9143,7 +9145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9157,7 +9159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>483</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9206,7 +9208,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9220,7 +9222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>484</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9268,7 +9270,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9302,7 +9304,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9344,7 +9346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9364,7 +9366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9384,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9452,7 +9454,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9499,20 +9501,20 @@
   <conditionalFormatting sqref="C22:C25">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D34 F31:F34 C36:D36 F36 D38 F38">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C42">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D34 F31:F34 C36:D36 F36 D38 F38">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:D46 F44:F46">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9530,17 +9532,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9580,8 +9582,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9599,17 +9601,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>485</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9809,7 +9811,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9919,7 +9921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9947,21 +9949,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10017,7 +10019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10025,7 +10027,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10144,7 +10146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10172,7 +10174,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10186,7 +10188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10282,7 +10284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10316,7 +10318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10460,7 +10462,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10516,7 +10518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>497</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10612,7 +10614,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>487</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10646,7 +10648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10660,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10770,7 +10772,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10826,7 +10828,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10908,21 +10910,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10942,7 +10944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10962,10 +10964,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10985,7 +10987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10999,7 +11001,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11027,7 +11029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11041,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11075,7 +11077,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11089,7 +11091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11117,7 +11119,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>502</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11157,7 +11159,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11185,7 +11187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>509</v>
       </c>
@@ -11205,7 +11207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11233,7 +11235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11250,7 +11252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11261,7 +11263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>360</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11295,7 +11297,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11315,7 +11317,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11363,7 +11365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11431,7 +11433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11445,7 +11447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11459,7 +11461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11473,7 +11475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11487,7 +11489,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11507,7 +11509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11521,7 +11523,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>372</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11555,7 +11557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11603,7 +11605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>497</v>
       </c>
@@ -11637,7 +11639,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11679,7 +11681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11693,7 +11695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>487</v>
       </c>
@@ -11713,7 +11715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11803,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11823,7 +11825,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11857,7 +11859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11871,7 +11873,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11885,7 +11887,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11899,7 +11901,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11933,7 +11935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11947,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3176" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A732BC27-A2F0-404E-A6C6-D3CB032477A0}"/>
+  <xr:revisionPtr revIDLastSave="3179" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24B8957-314C-4595-8794-03E98438FF84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="511">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1128,9 +1128,6 @@
   </si>
   <si>
     <t>Quirine Lemoine (NETHERLANDS)</t>
-  </si>
-  <si>
-    <t>MUTUA MADRID OPEN</t>
   </si>
   <si>
     <t>Sara Errani (ITALY)</t>
@@ -4028,7 +4025,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07085E23-98FE-44BD-A2F4-D1FE2F30CE02}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4111,6 +4108,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4416,17 +4417,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4451,7 +4452,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4471,7 +4472,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4533,7 +4534,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4564,8 +4565,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4609,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -4663,7 +4664,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,7 +4680,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4711,7 +4712,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -4787,12 +4788,12 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -4815,7 +4816,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -4835,7 +4836,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4925,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4958,7 +4959,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4967,7 +4968,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -4981,13 +4982,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4995,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
@@ -5009,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -5029,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -5091,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5111,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5139,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5167,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5181,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -5254,10 +5255,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5271,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5296,7 +5297,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5316,7 +5317,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5345,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,7 +5360,7 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5367,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5393,12 +5394,12 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
         <v>225</v>
@@ -5407,7 +5408,7 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5429,7 +5430,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
@@ -5483,7 +5484,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5511,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5531,7 +5532,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5545,7 +5546,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5559,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5578,7 +5579,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -5615,13 +5616,13 @@
         <v>343</v>
       </c>
       <c r="D83" t="s">
+        <v>415</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
         <v>416</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5635,7 +5636,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,7 +5667,7 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5694,17 +5695,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5738,7 +5739,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -5757,7 +5758,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5766,13 +5767,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5804,7 +5805,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5840,7 +5841,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5848,7 +5849,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5862,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5882,7 +5883,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5896,7 +5897,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5910,12 +5911,12 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5938,13 +5939,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
@@ -5958,7 +5959,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
@@ -5988,18 +5989,18 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6033,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6067,7 +6068,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6078,10 +6079,10 @@
         <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6109,7 +6110,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6123,7 +6124,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -6171,12 +6172,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6205,13 +6206,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>434</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6239,7 +6240,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6253,7 +6254,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,7 +6287,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6295,7 +6296,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6315,7 +6316,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,7 +6324,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6334,7 +6335,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6349,7 +6350,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,7 +6364,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6377,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,12 +6392,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6419,13 +6420,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6433,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6453,7 +6454,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6461,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6481,7 +6482,7 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6495,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
@@ -6509,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6523,13 +6524,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,13 +6544,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6557,13 +6558,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6577,13 +6578,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>457</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6591,7 +6592,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6605,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6619,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6633,7 +6634,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6653,7 +6654,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6667,12 +6668,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6681,7 +6682,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6692,7 +6693,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6701,13 +6702,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
+        <v>487</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
         <v>488</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6729,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6757,7 +6758,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6777,7 +6778,7 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
@@ -6791,13 +6792,13 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
         <v>498</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6811,7 +6812,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6829,17 +6830,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6864,7 +6865,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -6873,13 +6874,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6901,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6915,7 +6916,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6949,7 +6950,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7025,7 +7026,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7042,17 +7043,17 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7060,10 +7061,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>131</v>
@@ -7374,7 +7375,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
@@ -7428,18 +7429,18 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7464,7 +7465,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7512,7 +7513,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7535,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7588,7 +7589,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7669,17 +7670,17 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -7764,7 +7765,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7868,7 +7869,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7949,7 +7950,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -8046,7 +8047,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -8142,7 +8143,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8220,7 +8221,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8249,12 +8250,12 @@
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8305,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8330,7 +8331,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8392,7 +8393,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8455,17 +8456,17 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8578,7 +8579,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8612,7 +8613,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8646,7 +8647,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8666,7 +8667,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8900,17 +8901,17 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9006,7 +9007,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9031,7 +9032,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -9051,7 +9052,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9113,7 +9114,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9238,7 +9239,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9529,17 +9530,17 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9598,17 +9599,17 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9633,7 +9634,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9802,7 +9803,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -9950,17 +9951,17 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10241,7 +10242,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -10365,7 +10366,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
@@ -10540,7 +10541,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10616,7 +10617,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -10911,17 +10912,17 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11020,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -11121,7 +11122,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11189,7 +11190,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11265,7 +11266,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>509</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11274,7 +11275,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -11294,7 +11295,7 @@
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11314,7 +11315,7 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -11342,7 +11343,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -11356,7 +11357,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -11370,13 +11371,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -11390,7 +11391,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -11438,7 +11439,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -11452,7 +11453,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -11486,7 +11487,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -11520,12 +11521,12 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -11548,7 +11549,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -11610,7 +11611,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -11621,7 +11622,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11630,13 +11631,13 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>375</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11644,13 +11645,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
+        <v>376</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>377</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -11697,7 +11698,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11754,7 +11755,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -11768,7 +11769,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -11822,7 +11823,7 @@
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -11892,13 +11893,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -11912,7 +11913,7 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -11968,7 +11969,7 @@
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3152" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A33883D9-81B4-4B8D-8461-C4540D434892}"/>
+  <xr:revisionPtr revIDLastSave="3179" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24B8957-314C-4595-8794-03E98438FF84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="2021" sheetId="28" r:id="rId12"/>
     <sheet name="2022" sheetId="35" r:id="rId13"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="YTD Wins-Losses" sheetId="36" r:id="rId15"/>
+    <sheet name="Wins-Losses" sheetId="36" r:id="rId15"/>
     <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="511">
   <si>
     <t>Semifinal</t>
   </si>
@@ -650,9 +650,6 @@
     <t>Nastassja Burnett (ITALY)</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>Kurumi Nara (JAPAN)</t>
   </si>
   <si>
@@ -1133,9 +1130,6 @@
     <t>Quirine Lemoine (NETHERLANDS)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Sara Errani (ITALY)</t>
   </si>
   <si>
@@ -1578,6 +1572,15 @@
   </si>
   <si>
     <t>6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
   </si>
 </sst>
 </file>
@@ -1666,19 +1669,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4048,7 +4048,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4108,6 +4108,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4413,20 +4417,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" activeCellId="2" sqref="A2 A4 A9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4446,9 +4450,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4466,9 +4470,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4486,7 +4490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4528,9 +4532,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4561,21 +4565,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4595,30 +4599,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>385</v>
+      <c r="D2" t="s">
+        <v>383</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -4627,14 +4631,14 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -4643,30 +4647,30 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
@@ -4675,52 +4679,50 @@
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -4729,12 +4731,12 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="F10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="s">
@@ -4743,12 +4745,12 @@
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="F11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
@@ -4761,24 +4763,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4786,17 +4788,17 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
@@ -4809,12 +4811,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -4823,8 +4825,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
@@ -4834,10 +4836,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4854,15 +4856,15 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -4871,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4896,15 +4898,15 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
@@ -4913,7 +4915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4924,12 +4926,12 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -4944,7 +4946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4952,12 +4954,12 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4966,7 +4968,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -4975,40 +4977,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>396</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -5017,9 +5019,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -5028,16 +5030,16 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5082,15 +5084,15 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5099,7 +5101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5110,15 +5112,15 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
@@ -5127,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5138,15 +5140,15 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -5155,9 +5157,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -5166,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5175,12 +5177,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -5189,7 +5191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -5251,12 +5253,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5265,12 +5267,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5279,7 +5281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5293,9 +5295,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5310,12 +5312,12 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5330,24 +5332,24 @@
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5358,15 +5360,15 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5375,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5392,24 +5394,24 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5423,12 +5425,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
@@ -5437,9 +5439,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -5448,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -5457,7 +5459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5482,10 +5484,10 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5499,9 +5501,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -5510,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5519,21 +5521,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5544,10 +5546,10 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5558,10 +5560,10 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5572,18 +5574,18 @@
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -5595,9 +5597,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -5609,21 +5611,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5634,10 +5636,10 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5651,9 +5653,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -5665,12 +5667,12 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>22</v>
@@ -5693,20 +5695,20 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5726,27 +5728,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>390</v>
+      <c r="D2" t="s">
+        <v>388</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5754,43 +5756,43 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>492</v>
+      <c r="D4" t="s">
+        <v>490</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>310</v>
+      <c r="D5" t="s">
+        <v>309</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5802,14 +5804,14 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
@@ -5818,36 +5820,36 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5856,12 +5858,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5870,8 +5872,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="s">
@@ -5881,10 +5883,10 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5895,10 +5897,10 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5909,14 +5911,14 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
@@ -5932,21 +5934,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5957,10 +5959,10 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5987,21 +5989,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6021,18 +6023,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6041,7 +6043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6066,24 +6068,24 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6117,21 +6119,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6170,12 +6172,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6193,7 +6195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6204,16 +6206,16 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6238,10 +6240,10 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6252,10 +6254,10 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6280,12 +6282,12 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6294,7 +6296,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6303,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6314,15 +6316,15 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6331,9 +6333,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6348,10 +6350,10 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6362,10 +6364,10 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6376,10 +6378,10 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6390,12 +6392,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6413,26 +6415,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
         <v>444</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6441,7 +6443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6452,15 +6454,15 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6469,7 +6471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6480,12 +6482,12 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -6494,21 +6496,21 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6517,21 +6519,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6542,30 +6544,30 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6576,21 +6578,21 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6599,12 +6601,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6613,12 +6615,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6627,12 +6629,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6641,7 +6643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6652,10 +6654,10 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6666,12 +6668,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>467</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6680,7 +6682,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6689,9 +6691,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6700,16 +6702,16 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6723,12 +6725,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6737,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6751,12 +6753,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6765,7 +6767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6776,30 +6778,30 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6828,20 +6830,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6861,27 +6863,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6895,12 +6897,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6909,12 +6911,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6923,7 +6925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6934,21 +6936,21 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6957,7 +6959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6985,7 +6987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6999,12 +7001,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -7013,7 +7015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7040,29 +7042,29 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>131</v>
@@ -7074,49 +7076,49 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="1">
         <f>(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1">
         <f>(D3-E3)/D3</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7137,7 +7139,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7158,7 +7160,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7346,59 +7348,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>SUM(B2:B14)</f>
         <v>125</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>SUM(C2:C14)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>SUM(D2:D14)</f>
         <v>305</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
         <v>101</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f>(D15-E15)/D15</f>
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B16" s="7">
+        <v>485</v>
+      </c>
+      <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
         <v>9.615384615384615</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>AVERAGE(C2:C14)</f>
         <v>1.1538461538461537</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f>AVERAGE(D2:D14)</f>
         <v>23.46153846153846</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f>AVERAGE(E2:E14)</f>
         <v>7.7692307692307692</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f>(D16-E16)/D16</f>
         <v>0.66885245901639334</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4:F14">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7406,8 +7408,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F3">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F4:F14">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7427,21 +7429,21 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7461,9 +7463,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7471,17 +7473,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7509,9 +7511,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7529,12 +7531,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7543,7 +7545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7585,9 +7587,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7595,45 +7597,45 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>189</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7649,7 +7651,7 @@
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7668,20 +7670,20 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7761,9 +7763,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7781,7 +7783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7823,39 +7825,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -7865,9 +7867,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7884,9 +7886,9 @@
       <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7899,9 +7901,9 @@
       <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7914,9 +7916,9 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7929,9 +7931,9 @@
       <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7944,11 +7946,11 @@
       <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -7966,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7979,9 +7981,9 @@
       <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8009,21 +8011,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8043,9 +8045,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -8063,21 +8065,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" t="s">
         <v>157</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8087,11 +8089,11 @@
       <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8101,25 +8103,25 @@
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" t="s">
         <v>116</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8139,9 +8141,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8159,7 +8161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8172,9 +8174,9 @@
       <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8201,25 +8203,25 @@
       <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8227,33 +8229,33 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" t="s">
         <v>163</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8271,7 +8273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8299,12 +8301,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8313,7 +8315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8327,9 +8329,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8347,7 +8349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8389,9 +8391,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8409,7 +8411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8422,9 +8424,9 @@
       <c r="F59" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8437,7 +8439,7 @@
       <c r="F60" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8454,20 +8456,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8527,7 +8529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8575,9 +8577,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8595,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8609,9 +8611,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8629,7 +8631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8643,9 +8645,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8663,9 +8665,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8674,21 +8676,21 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -8697,12 +8699,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -8711,23 +8713,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -8742,7 +8744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8759,15 +8761,15 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>21</v>
@@ -8776,9 +8778,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -8787,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -8796,7 +8798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -8836,7 +8838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8850,9 +8852,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -8861,7 +8863,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -8870,18 +8872,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -8898,21 +8900,21 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8932,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8943,16 +8945,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8966,9 +8968,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
         <v>108</v>
@@ -8977,15 +8979,15 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -8994,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9005,10 +9007,10 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -9028,9 +9030,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -9039,18 +9041,18 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9068,26 +9070,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
         <v>226</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>227</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -9096,23 +9098,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9121,7 +9123,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -9130,12 +9132,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -9144,12 +9146,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -9158,23 +9160,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9183,21 +9185,21 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9205,14 +9207,14 @@
       <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
@@ -9221,23 +9223,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9246,35 +9248,35 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
         <v>240</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" t="s">
-        <v>241</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>21</v>
@@ -9283,9 +9285,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -9294,21 +9296,21 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -9317,9 +9319,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" t="s">
         <v>140</v>
@@ -9328,15 +9330,15 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -9345,7 +9347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9365,9 +9367,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -9376,7 +9378,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -9385,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9396,7 +9398,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -9405,12 +9407,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -9419,21 +9421,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9444,21 +9446,21 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -9467,21 +9469,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>257</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9500,20 +9502,20 @@
   <conditionalFormatting sqref="C22:C25">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D34 F31:F34 C36:D36 F36 D38 F38">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C42">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D34 F31:F34 C36:D36 F36 D38 F38">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:D46 F44:F46">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9528,20 +9530,20 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9581,8 +9583,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9597,20 +9599,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9630,9 +9632,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9641,7 +9643,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -9650,12 +9652,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -9664,26 +9666,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -9692,26 +9694,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -9720,7 +9722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9731,12 +9733,12 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>267</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -9745,7 +9747,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -9754,12 +9756,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -9768,26 +9770,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -9796,21 +9798,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9821,10 +9823,10 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9835,21 +9837,21 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -9858,9 +9860,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -9869,7 +9871,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -9878,12 +9880,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
@@ -9892,7 +9894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9903,15 +9905,15 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9920,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9931,7 +9933,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -9948,21 +9950,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9982,43 +9984,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>282</v>
+      <c r="D2" t="s">
+        <v>281</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10026,7 +10028,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10037,16 +10039,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10057,10 +10059,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -10080,7 +10082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10091,11 +10093,11 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -10105,12 +10107,12 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -10122,10 +10124,10 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10136,7 +10138,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -10145,40 +10147,40 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -10187,26 +10189,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -10215,12 +10217,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -10229,7 +10231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10240,21 +10242,21 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -10263,9 +10265,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -10274,16 +10276,16 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10294,12 +10296,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>302</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -10308,7 +10310,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -10317,35 +10319,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>304</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10359,21 +10361,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10384,7 +10386,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -10393,41 +10395,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>308</v>
+      <c r="D37" t="s">
+        <v>307</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10437,45 +10439,45 @@
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
         <v>310</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10485,11 +10487,11 @@
       <c r="E42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10499,11 +10501,11 @@
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10534,12 +10536,12 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10548,7 +10550,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -10557,7 +10559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10568,38 +10570,38 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
       <c r="D50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
         <v>321</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10610,12 +10612,12 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -10624,21 +10626,21 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -10647,12 +10649,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -10661,8 +10663,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57" t="s">
@@ -10672,15 +10674,15 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -10689,7 +10691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10700,31 +10702,31 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
         <v>329</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
       <c r="D61" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
         <v>331</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
@@ -10737,9 +10739,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -10748,17 +10750,17 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
@@ -10768,24 +10770,24 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10796,10 +10798,10 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10813,28 +10815,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>342</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71" t="s">
@@ -10847,15 +10849,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -10867,26 +10869,26 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" t="s">
         <v>344</v>
       </c>
-      <c r="D74" t="s">
-        <v>345</v>
-      </c>
       <c r="E74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -10909,21 +10911,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10943,93 +10945,93 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>347</v>
+      <c r="D2" t="s">
+        <v>346</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>349</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>350</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>507</v>
+      <c r="D7" t="s">
+        <v>505</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
@@ -11042,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11059,10 +11061,10 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11073,10 +11075,10 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11090,15 +11092,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -11107,20 +11109,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11138,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11149,16 +11151,16 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>356</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11186,9 +11188,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11206,7 +11208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11220,12 +11222,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -11234,15 +11236,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
@@ -11251,9 +11253,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -11262,9 +11264,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11273,7 +11275,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -11282,23 +11284,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -11313,12 +11315,12 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -11327,7 +11329,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -11336,12 +11338,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -11350,12 +11352,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -11364,21 +11366,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -11398,12 +11400,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
@@ -11412,9 +11414,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -11432,12 +11434,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -11446,12 +11448,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -11460,7 +11462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11474,7 +11476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11485,12 +11487,12 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -11499,7 +11501,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -11508,7 +11510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11519,12 +11521,12 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -11542,12 +11544,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -11556,12 +11558,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -11570,7 +11572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11604,12 +11606,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -11618,9 +11620,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11629,30 +11631,30 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11680,7 +11682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11691,12 +11693,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11705,7 +11707,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
@@ -11714,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11742,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11753,7 +11755,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -11762,12 +11764,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -11776,7 +11778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11790,7 +11792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11804,9 +11806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -11815,16 +11817,16 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11838,9 +11840,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -11858,21 +11860,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11883,24 +11885,24 @@
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11911,21 +11913,21 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>22</v>
@@ -11934,9 +11936,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D85" t="s">
         <v>138</v>
@@ -11948,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11962,12 +11964,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3179" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24B8957-314C-4595-8794-03E98438FF84}"/>
+  <xr:revisionPtr revIDLastSave="3180" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F877C8A2-B2AD-41A7-B921-54327AE22FF4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="2020" sheetId="27" r:id="rId11"/>
     <sheet name="2021" sheetId="28" r:id="rId12"/>
     <sheet name="2022" sheetId="35" r:id="rId13"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId14"/>
+    <sheet name="Stats" sheetId="1" r:id="rId14"/>
     <sheet name="Wins-Losses" sheetId="36" r:id="rId15"/>
     <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
@@ -1846,7 +1846,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1867,7 +1867,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1915,7 +1915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$14</c:f>
+              <c:f>Stats!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1972,7 +1972,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1993,7 +1993,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2041,7 +2041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$14</c:f>
+              <c:f>Stats!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2484,7 +2484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2533,7 +2533,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$14</c:f>
+              <c:f>Stats!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2581,7 +2581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$14</c:f>
+              <c:f>Stats!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4037,7 +4037,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95A0C735-E560-482D-A09D-D29EBA3244D5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4081,7 +4081,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4108,10 +4108,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7429,7 +7425,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3180" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F877C8A2-B2AD-41A7-B921-54327AE22FF4}"/>
+  <xr:revisionPtr revIDLastSave="3181" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC857E6-2F5F-4E59-93B8-27F34570D492}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4025,7 +4025,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07085E23-98FE-44BD-A2F4-D1FE2F30CE02}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4081,7 +4081,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4108,6 +4108,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4412,21 +4416,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>469</v>
       </c>
@@ -4561,21 +4565,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4631,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4647,7 +4651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4663,7 +4667,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4679,11 +4683,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>402</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>402</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5690,21 +5694,21 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5752,7 +5756,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5788,7 +5792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5804,7 +5808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5820,7 +5824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5985,21 +5989,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6129,7 +6133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>509</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6625,7 +6629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6667,7 +6671,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>465</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>486</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6825,21 +6829,21 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7038,21 +7042,21 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7281,7 +7285,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
@@ -7425,21 +7429,21 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7665,21 +7669,21 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>471</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -7884,7 +7888,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7899,7 +7903,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7918,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7929,7 +7933,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7944,7 +7948,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +8011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8137,7 +8141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8172,7 +8176,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8201,7 +8205,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8249,7 +8253,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>477</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8426,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8451,21 +8455,21 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>478</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8896,21 +8900,21 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>502</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9108,7 +9112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9205,7 +9209,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9281,7 +9285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9451,7 +9455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9465,7 +9469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9525,21 +9529,21 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9579,8 +9583,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9594,21 +9598,21 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9752,7 +9756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9766,7 +9770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9780,7 +9784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9946,21 +9950,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10016,7 +10020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10024,7 +10028,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10078,7 +10082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10092,7 +10096,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10143,7 +10147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10213,7 +10217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10247,7 +10251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10261,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10411,7 +10415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10425,7 +10429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -10555,7 +10559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10645,7 +10649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10721,7 +10725,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10755,7 +10759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10797,7 +10801,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10865,7 +10869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10907,21 +10911,21 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10961,10 +10965,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10984,7 +10988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11074,7 +11078,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11105,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11294,7 +11298,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11314,7 +11318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11376,7 +11380,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11430,7 +11434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11458,7 +11462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11506,7 +11510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11568,7 +11572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -11636,7 +11640,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>486</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3181" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC857E6-2F5F-4E59-93B8-27F34570D492}"/>
+  <xr:revisionPtr revIDLastSave="3182" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4D588F-54B7-44A0-8AD4-32167C1CE9C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4417,20 +4417,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>469</v>
       </c>
@@ -4566,20 +4566,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4651,7 +4651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4667,7 +4667,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4683,11 +4683,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>402</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>402</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5695,20 +5695,20 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5756,7 +5756,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5792,7 +5792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5808,7 +5808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5824,7 +5824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5990,20 +5990,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>509</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>465</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>486</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6830,20 +6830,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7043,20 +7043,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
@@ -7430,20 +7430,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7670,20 +7670,20 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>471</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>477</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8456,20 +8456,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>478</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8901,20 +8901,20 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>502</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9530,20 +9530,20 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9583,8 +9583,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9599,20 +9599,20 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9951,20 +9951,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10020,7 +10020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10028,7 +10028,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10912,20 +10912,20 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10965,10 +10965,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>486</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3182" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4D588F-54B7-44A0-8AD4-32167C1CE9C0}"/>
+  <xr:revisionPtr revIDLastSave="3184" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4290575-D576-4268-A26F-357F5E02D391}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3184" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4290575-D576-4268-A26F-357F5E02D391}"/>
+  <xr:revisionPtr revIDLastSave="3185" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9D2AF7-C97E-4C3F-850D-216B7004CD9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4110,10 +4110,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4420,17 +4416,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4450,7 +4446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4490,7 +4486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>469</v>
       </c>
@@ -4569,17 +4565,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4635,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4651,7 +4647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4667,7 +4663,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4683,11 +4679,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4735,7 +4731,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4780,7 +4776,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4835,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +4869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4887,7 +4883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4929,7 +4925,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4957,7 +4953,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5001,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5019,7 +5015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5039,7 +5035,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5087,7 +5083,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5139,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5157,7 +5153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5253,7 +5249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>402</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>402</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5698,17 +5694,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5748,7 +5744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5756,7 +5752,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5792,7 +5788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5808,7 +5804,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5824,7 +5820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5844,7 +5840,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5872,7 +5868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5900,7 +5896,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5914,7 +5910,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5958,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5993,17 +5989,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6057,7 +6053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6133,7 +6129,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6215,7 +6211,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6333,7 +6329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6363,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6395,7 +6391,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>509</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6429,7 +6425,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6443,7 +6439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6457,7 +6453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6505,7 +6501,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6519,7 +6515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6553,7 +6549,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6587,7 +6583,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6601,7 +6597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6629,7 +6625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6653,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6667,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>465</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>486</v>
       </c>
@@ -6711,7 +6707,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6725,7 +6721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6739,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6787,7 +6783,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6801,7 +6797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6833,17 +6829,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6883,7 +6879,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6911,7 +6907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6925,7 +6921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +6941,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7001,7 +6997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7015,7 +7011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7046,17 +7042,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7118,7 +7114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7201,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7222,7 +7218,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7285,7 +7281,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7327,7 +7323,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7373,7 +7369,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
@@ -7433,17 +7429,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7463,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7531,7 +7527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7587,7 +7583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -7607,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7635,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7673,17 +7669,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7723,7 +7719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7743,7 +7739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>471</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7839,7 +7835,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -7888,7 +7884,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7899,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7914,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7933,7 +7929,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7948,7 +7944,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7983,7 +7979,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -8065,7 +8061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8079,7 +8075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8107,7 +8103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8121,7 +8117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8141,7 +8137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8176,7 +8172,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8205,7 +8201,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8219,7 +8215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -8239,7 +8235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8253,7 +8249,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8273,7 +8269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8287,7 +8283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8301,7 +8297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8315,7 +8311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8377,7 +8373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8391,7 +8387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>477</v>
       </c>
@@ -8411,7 +8407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8426,7 +8422,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8459,17 +8455,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8549,7 +8545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8563,7 +8559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>478</v>
       </c>
@@ -8597,7 +8593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8723,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8838,7 +8834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8852,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8872,7 +8868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8904,17 +8900,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9030,7 +9026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -9050,7 +9046,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>502</v>
       </c>
@@ -9070,7 +9066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9112,7 +9108,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -9132,7 +9128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9209,7 +9205,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9223,7 +9219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9237,7 +9233,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -9257,7 +9253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9285,7 +9281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9305,7 +9301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9319,7 +9315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9333,7 +9329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9367,7 +9363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9387,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9407,7 +9403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9421,7 +9417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9435,7 +9431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9455,7 +9451,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9469,7 +9465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9483,7 +9479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9533,17 +9529,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9583,8 +9579,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9602,17 +9598,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -9652,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9666,7 +9662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9694,7 +9690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9708,7 +9704,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9722,7 +9718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9736,7 +9732,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9756,7 +9752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9784,7 +9780,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9812,7 +9808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9846,7 +9842,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9860,7 +9856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9894,7 +9890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9954,17 +9950,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10020,7 +10016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10028,7 +10024,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10048,7 +10044,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10082,7 +10078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10110,7 +10106,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10175,7 +10171,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10203,7 +10199,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10251,7 +10247,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10265,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10299,7 +10295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10375,7 +10371,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10395,7 +10391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10415,7 +10411,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10429,7 +10425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10443,7 +10439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10477,7 +10473,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10491,7 +10487,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10539,7 +10535,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -10559,7 +10555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10573,7 +10569,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10587,7 +10583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10649,7 +10645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10663,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10677,7 +10673,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10691,7 +10687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10711,7 +10707,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10725,7 +10721,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10759,7 +10755,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10773,7 +10769,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10801,7 +10797,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10815,7 +10811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10869,7 +10865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10883,7 +10879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10915,17 +10911,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10965,10 +10961,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10988,7 +10984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11016,7 +11012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11092,7 +11088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11109,7 +11105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11120,7 +11116,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -11140,7 +11136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11236,7 +11232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11253,7 +11249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11298,7 +11294,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11318,7 +11314,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11352,7 +11348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11366,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11380,7 +11376,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11400,7 +11396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11434,7 +11430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11448,7 +11444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11462,7 +11458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11476,7 +11472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11510,7 +11506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11592,7 +11588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11620,7 +11616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -11640,7 +11636,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +11692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>486</v>
       </c>
@@ -11716,7 +11712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11744,7 +11740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +11788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11860,7 +11856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11874,7 +11870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11902,7 +11898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11916,7 +11912,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3185" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9D2AF7-C97E-4C3F-850D-216B7004CD9A}"/>
+  <xr:revisionPtr revIDLastSave="3186" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32F1537-9C3D-4727-ACB5-83A9D6CBD9D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4110,6 +4110,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4416,17 +4420,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>469</v>
       </c>
@@ -4565,17 +4569,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4631,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4647,7 +4651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4663,7 +4667,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4679,11 +4683,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4821,7 +4825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>402</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>402</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5545,7 +5549,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5607,7 +5611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5694,17 +5698,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5752,7 +5756,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5788,7 +5792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5804,7 +5808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5820,7 +5824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5930,7 +5934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5989,17 +5993,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6085,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6095,7 +6099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6129,7 +6133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -6191,7 +6195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6225,7 +6229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -6301,7 +6305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6391,7 +6395,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>509</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6425,7 +6429,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +6443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6481,7 +6485,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6501,7 +6505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6625,7 +6629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6667,7 +6671,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>465</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>486</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6829,17 +6833,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6921,7 +6925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7042,17 +7046,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7156,7 +7160,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7218,7 +7222,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7281,7 +7285,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
@@ -7429,17 +7433,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7493,7 +7497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7631,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7669,17 +7673,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>471</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -7884,7 +7888,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7899,7 +7903,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7918,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7929,7 +7933,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7944,7 +7948,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7983,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8007,7 +8011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8041,7 +8045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8137,7 +8141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8172,7 +8176,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8186,7 +8190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8201,7 +8205,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8249,7 +8253,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8373,7 +8377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>477</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8422,7 +8426,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8455,17 +8459,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>478</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8723,7 +8727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8900,17 +8904,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>502</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9108,7 +9112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9205,7 +9209,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9281,7 +9285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9451,7 +9455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9465,7 +9469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9479,7 +9483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9529,17 +9533,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9579,8 +9583,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9598,17 +9602,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -9648,7 +9652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9704,7 +9708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9718,7 +9722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9752,7 +9756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9766,7 +9770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9780,7 +9784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9808,7 +9812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9822,7 +9826,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9856,7 +9860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9876,7 +9880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9950,17 +9954,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10016,7 +10020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10024,7 +10028,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10078,7 +10082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10092,7 +10096,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10106,7 +10110,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10123,7 +10127,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10143,7 +10147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10171,7 +10175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10213,7 +10217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10227,7 +10231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10247,7 +10251,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10261,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10295,7 +10299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10411,7 +10415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10425,7 +10429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10459,7 +10463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -10555,7 +10559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10645,7 +10649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10659,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10721,7 +10725,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10755,7 +10759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10769,7 +10773,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10797,7 +10801,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10825,7 +10829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10845,7 +10849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10865,7 +10869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10911,17 +10915,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10961,10 +10965,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10984,7 +10988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11074,7 +11078,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11105,7 +11109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11294,7 +11298,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11314,7 +11318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11376,7 +11380,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11430,7 +11434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11458,7 +11462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11506,7 +11510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11568,7 +11572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11588,7 +11592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -11636,7 +11640,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>486</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11788,7 +11792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11802,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11836,7 +11840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3186" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32F1537-9C3D-4727-ACB5-83A9D6CBD9D2}"/>
+  <xr:revisionPtr revIDLastSave="3189" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F0F9A4-37FA-491B-8BD5-FA82063CFFFB}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4110,10 +4110,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4420,17 +4416,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4450,7 +4446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>467</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>468</v>
       </c>
@@ -4490,7 +4486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>469</v>
       </c>
@@ -4569,17 +4565,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4599,7 +4595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -4635,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
@@ -4651,7 +4647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -4667,7 +4663,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -4683,11 +4679,11 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -4735,7 +4731,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -4780,7 +4776,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>114</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +4821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4835,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +4869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -4887,7 +4883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -4901,7 +4897,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -4929,7 +4925,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>74</v>
       </c>
@@ -4957,7 +4953,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>509</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>4</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5001,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -5019,7 +5015,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>298</v>
       </c>
@@ -5039,7 +5035,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -5053,7 +5049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>30</v>
       </c>
@@ -5087,7 +5083,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>3</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -5143,7 +5139,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -5157,7 +5153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +5187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -5253,7 +5249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>402</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>3</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>510</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>486</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>402</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>332</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>2</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>51</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>414</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>343</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>51</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5670,7 +5666,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>335</v>
       </c>
@@ -5698,17 +5694,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -5748,7 +5744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5756,7 +5752,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
@@ -5792,7 +5788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
@@ -5808,7 +5804,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
@@ -5824,7 +5820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5844,7 +5840,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -5872,7 +5868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -5900,7 +5896,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5914,7 +5910,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -5962,7 +5958,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -5993,17 +5989,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -6057,7 +6053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -6099,7 +6095,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6119,7 +6115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -6133,7 +6129,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -6161,7 +6157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -6175,7 +6171,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>419</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -6215,7 +6211,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>0</v>
       </c>
@@ -6271,7 +6267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>3</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -6333,7 +6329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>455</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6363,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>51</v>
       </c>
@@ -6395,7 +6391,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>509</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>4</v>
       </c>
@@ -6429,7 +6425,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6443,7 +6439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -6457,7 +6453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6471,7 +6467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>51</v>
       </c>
@@ -6485,7 +6481,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>298</v>
       </c>
@@ -6505,7 +6501,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -6519,7 +6515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -6533,7 +6529,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6553,7 +6549,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>30</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6587,7 +6583,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>30</v>
       </c>
@@ -6601,7 +6597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -6629,7 +6625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6653,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>51</v>
       </c>
@@ -6671,7 +6667,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>465</v>
       </c>
@@ -6691,7 +6687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>486</v>
       </c>
@@ -6711,7 +6707,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>3</v>
       </c>
@@ -6725,7 +6721,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -6739,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -6787,7 +6783,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>30</v>
       </c>
@@ -6801,7 +6797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -6833,17 +6829,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -6863,7 +6859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6883,7 +6879,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -6911,7 +6907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>51</v>
       </c>
@@ -6925,7 +6921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6945,7 +6941,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -7001,7 +6997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>0</v>
       </c>
@@ -7015,7 +7011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -7046,17 +7042,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -7118,7 +7114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -7201,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -7222,7 +7218,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>0.58695652173913049</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -7285,7 +7281,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7306,7 +7302,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -7327,7 +7323,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -7373,7 +7369,7 @@
         <v>0.66885245901639345</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>485</v>
       </c>
@@ -7433,17 +7429,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7463,7 +7459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>471</v>
       </c>
@@ -7531,7 +7527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -7587,7 +7583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>472</v>
       </c>
@@ -7607,7 +7603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -7635,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7673,17 +7669,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -7703,7 +7699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7723,7 +7719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -7743,7 +7739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>471</v>
       </c>
@@ -7783,7 +7779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -7825,7 +7821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -7839,7 +7835,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>470</v>
       </c>
@@ -7888,7 +7884,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7899,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7914,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -7933,7 +7929,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -7948,7 +7944,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>467</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -7983,7 +7979,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -8065,7 +8061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -8079,7 +8075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>0</v>
       </c>
@@ -8107,7 +8103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -8121,7 +8117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -8141,7 +8137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>3</v>
       </c>
@@ -8176,7 +8172,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -8205,7 +8201,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>51</v>
       </c>
@@ -8219,7 +8215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>475</v>
       </c>
@@ -8239,7 +8235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -8253,7 +8249,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>469</v>
       </c>
@@ -8273,7 +8269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>3</v>
       </c>
@@ -8287,7 +8283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -8301,7 +8297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -8315,7 +8311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>51</v>
       </c>
@@ -8329,7 +8325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>476</v>
       </c>
@@ -8349,7 +8345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -8377,7 +8373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>0</v>
       </c>
@@ -8391,7 +8387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>477</v>
       </c>
@@ -8411,7 +8407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -8426,7 +8422,7 @@
       </c>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -8459,17 +8455,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -8549,7 +8545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -8563,7 +8559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>478</v>
       </c>
@@ -8597,7 +8593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>479</v>
       </c>
@@ -8631,7 +8627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -8699,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8723,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>209</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -8838,7 +8834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -8852,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -8872,7 +8868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -8904,17 +8900,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9030,7 +9026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>481</v>
       </c>
@@ -9050,7 +9046,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>502</v>
       </c>
@@ -9070,7 +9066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9080,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>218</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>4</v>
       </c>
@@ -9112,7 +9108,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -9132,7 +9128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>218</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -9174,7 +9170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>482</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -9209,7 +9205,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>218</v>
       </c>
@@ -9223,7 +9219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -9237,7 +9233,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>483</v>
       </c>
@@ -9257,7 +9253,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>218</v>
       </c>
@@ -9285,7 +9281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -9305,7 +9301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -9319,7 +9315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>218</v>
       </c>
@@ -9333,7 +9329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -9367,7 +9363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -9387,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -9407,7 +9403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -9421,7 +9417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>218</v>
       </c>
@@ -9435,7 +9431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -9455,7 +9451,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>6</v>
       </c>
@@ -9469,7 +9465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>218</v>
       </c>
@@ -9483,7 +9479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>29</v>
       </c>
@@ -9533,17 +9529,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9583,8 +9579,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9602,17 +9598,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>484</v>
       </c>
@@ -9652,7 +9648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -9666,7 +9662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -9694,7 +9690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -9708,7 +9704,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -9722,7 +9718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -9736,7 +9732,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -9756,7 +9752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>218</v>
       </c>
@@ -9784,7 +9780,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -9812,7 +9808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -9846,7 +9842,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -9860,7 +9856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>275</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -9894,7 +9890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>3</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -9954,17 +9950,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -10020,7 +10016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10028,7 +10024,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -10048,7 +10044,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -10082,7 +10078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -10096,7 +10092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -10110,7 +10106,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -10175,7 +10171,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -10203,7 +10199,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>51</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -10251,7 +10247,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -10265,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>298</v>
       </c>
@@ -10285,7 +10281,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -10299,7 +10295,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -10333,7 +10329,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>4</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>3</v>
       </c>
@@ -10361,7 +10357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -10375,7 +10371,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -10395,7 +10391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -10415,7 +10411,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>3</v>
       </c>
@@ -10429,7 +10425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -10443,7 +10439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>3</v>
       </c>
@@ -10477,7 +10473,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -10491,7 +10487,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>51</v>
       </c>
@@ -10519,7 +10515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10539,7 +10535,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>496</v>
       </c>
@@ -10559,7 +10555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>6</v>
       </c>
@@ -10573,7 +10569,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -10587,7 +10583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>3</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>486</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>6</v>
       </c>
@@ -10649,7 +10645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -10663,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>4</v>
       </c>
@@ -10677,7 +10673,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -10691,7 +10687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -10711,7 +10707,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>30</v>
       </c>
@@ -10725,7 +10721,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -10739,7 +10735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>332</v>
       </c>
@@ -10759,7 +10755,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -10773,7 +10769,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -10801,7 +10797,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -10815,7 +10811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>51</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -10849,7 +10845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>342</v>
       </c>
@@ -10869,7 +10865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>343</v>
       </c>
@@ -10883,7 +10879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -10915,17 +10911,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -10965,10 +10961,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -10988,7 +10984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -11016,7 +11012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>51</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -11092,7 +11088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
@@ -11109,7 +11105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>250</v>
       </c>
@@ -11120,7 +11116,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -11140,7 +11136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>3</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>508</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -11236,7 +11232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -11253,7 +11249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>359</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -11298,7 +11294,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -11318,7 +11314,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>3</v>
       </c>
@@ -11352,7 +11348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -11366,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -11380,7 +11376,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -11400,7 +11396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>30</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -11434,7 +11430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>3</v>
       </c>
@@ -11448,7 +11444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -11462,7 +11458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>0</v>
       </c>
@@ -11476,7 +11472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>51</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -11510,7 +11506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -11592,7 +11588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>30</v>
       </c>
@@ -11606,7 +11602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>4</v>
       </c>
@@ -11620,7 +11616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>496</v>
       </c>
@@ -11640,7 +11636,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -11654,7 +11650,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>2</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +11692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>486</v>
       </c>
@@ -11716,7 +11712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -11744,7 +11740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>30</v>
       </c>
@@ -11778,7 +11774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -11792,7 +11788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11860,7 +11856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -11874,7 +11870,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -11902,7 +11898,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>0</v>
       </c>
@@ -11916,7 +11912,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>343</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>51</v>
       </c>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3189" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F0F9A4-37FA-491B-8BD5-FA82063CFFFB}"/>
+  <xr:revisionPtr revIDLastSave="3191" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50ECBF8-8D92-4F61-9095-3C89D93C3CE8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -4111,9 +4111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4151,7 +4151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4257,7 +4257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4399,7 +4399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5985,7 +5985,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3191" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50ECBF8-8D92-4F61-9095-3C89D93C3CE8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3191" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50ECBF8-8D92-4F61-9095-3C89D93C3CE8}"/>
+  <xr:revisionPtr revIDLastSave="3198" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4601A652-F92B-4B88-A53A-AFB40941C06E}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -27,8 +27,6 @@
     <sheet name="2021" sheetId="28" r:id="rId12"/>
     <sheet name="2022" sheetId="35" r:id="rId13"/>
     <sheet name="Stats" sheetId="1" r:id="rId14"/>
-    <sheet name="Wins-Losses" sheetId="36" r:id="rId15"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1963,7 +1961,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C33-4366-900C-B020DB1821CE}"/>
+              <c16:uniqueId val="{00000000-1133-42C6-A919-2E8301844D5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2089,7 +2087,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C33-4366-900C-B020DB1821CE}"/>
+              <c16:uniqueId val="{00000001-1133-42C6-A919-2E8301844D5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2396,6 +2394,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2630,7 +2633,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19FC-467B-AEF8-5038D15776EE}"/>
+              <c16:uniqueId val="{00000001-B0CB-45D3-895E-21C9E57268E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2932,6 +2935,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4021,46 +4029,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{07085E23-98FE-44BD-A2F4-D1FE2F30CE02}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95A0C735-E560-482D-A09D-D29EBA3244D5}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525F1B70-D57C-4DAD-AA35-249821834D78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1433DB96-5572-D1B9-D7DB-9612FFF9DEFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4073,27 +4066,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CD16A6-9AC6-42EB-91B7-549824C9D185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4EAE21-5539-4D4D-3EA5-0A31AD4A3F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4101,12 +4097,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4412,7 +4408,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4561,7 +4557,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5690,7 +5686,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5985,7 +5981,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6825,7 +6821,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7039,7 +7035,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,6 +7411,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7425,7 +7422,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7662,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8451,7 +8448,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8896,7 +8893,7 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9525,7 +9522,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9594,7 +9591,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9946,7 +9943,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10907,7 +10904,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3198" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4601A652-F92B-4B88-A53A-AFB40941C06E}"/>
+  <xr:revisionPtr revIDLastSave="3199" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38DB89B-791B-4BCA-8079-C383D31036B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -1239,9 +1239,6 @@
     <t>6-1 1-6 6-1</t>
   </si>
   <si>
-    <t>Viktória Kužmová (SLOVAKIA)</t>
-  </si>
-  <si>
     <t>Andrea Petkovic (GERMANY)</t>
   </si>
   <si>
@@ -1579,6 +1576,9 @@
   </si>
   <si>
     <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Viktória Hrunčáková (SLOVAKIA)</t>
   </si>
 </sst>
 </file>
@@ -4106,6 +4106,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4444,7 +4448,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4464,7 +4468,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4526,7 +4530,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4557,8 +4561,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,7 +4789,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -4951,7 +4955,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4960,7 +4964,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -5022,7 +5026,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -5084,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5104,7 +5108,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5132,7 +5136,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5247,7 +5251,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D54" t="s">
         <v>376</v>
@@ -5264,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5289,7 +5293,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5309,7 +5313,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5338,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,7 +5356,7 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5360,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5386,12 +5390,12 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
         <v>225</v>
@@ -5400,7 +5404,7 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,7 +5480,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5504,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5524,7 +5528,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5538,7 +5542,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5552,7 +5556,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5571,7 +5575,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -5608,13 +5612,13 @@
         <v>343</v>
       </c>
       <c r="D83" t="s">
+        <v>414</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
         <v>415</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5628,7 +5632,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,7 +5663,7 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5750,7 +5754,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5759,7 +5763,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -5797,7 +5801,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5833,7 +5837,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5841,7 +5845,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5855,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5875,7 +5879,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,7 +5893,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5903,12 +5907,12 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5931,13 +5935,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -5951,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -5981,8 +5985,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6060,7 +6064,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6071,10 +6075,10 @@
         <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6102,7 +6106,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6116,7 +6120,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -6164,12 +6168,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6198,13 +6202,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>433</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6246,7 +6250,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6279,7 +6283,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6288,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6308,7 +6312,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6316,7 +6320,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6327,7 +6331,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6342,7 +6346,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6356,7 +6360,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6370,7 +6374,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,12 +6388,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6412,13 +6416,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6426,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6446,7 +6450,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6454,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6474,7 +6478,7 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6488,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
@@ -6502,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6516,13 +6520,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6536,13 +6540,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,13 +6554,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6570,13 +6574,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
+        <v>455</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>456</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6584,7 +6588,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6598,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6612,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6626,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6646,7 +6650,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6660,12 +6664,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6674,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6685,7 +6689,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6694,13 +6698,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
+        <v>486</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
         <v>487</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6722,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6750,7 +6754,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6770,7 +6774,7 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
@@ -6784,13 +6788,13 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
         <v>497</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,7 +6808,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +6861,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -6866,13 +6870,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6894,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6908,7 +6912,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6942,7 +6946,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7018,7 +7022,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -7053,10 +7057,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>131</v>
@@ -7367,7 +7371,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
@@ -7458,7 +7462,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7506,7 +7510,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7529,7 +7533,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7582,7 +7586,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7758,7 +7762,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7862,7 +7866,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7943,7 +7947,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -8040,7 +8044,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -8136,7 +8140,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8214,7 +8218,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8243,12 +8247,12 @@
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8299,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8324,7 +8328,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8386,7 +8390,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8572,7 +8576,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8606,7 +8610,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8640,7 +8644,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8660,7 +8664,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -9000,7 +9004,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9025,7 +9029,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -9045,7 +9049,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9107,7 +9111,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9169,7 +9173,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9232,7 +9236,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9627,7 +9631,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9796,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -10235,7 +10239,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -10359,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
@@ -10534,7 +10538,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10610,7 +10614,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -11014,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -11115,7 +11119,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11183,7 +11187,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11259,7 +11263,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11364,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -11615,7 +11619,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11691,7 +11695,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11886,7 +11890,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>

--- a/Tennis/WTA Tour/Ashleigh Barty.xlsx
+++ b/Tennis/WTA Tour/Ashleigh Barty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3199" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38DB89B-791B-4BCA-8079-C383D31036B9}"/>
+  <xr:revisionPtr revIDLastSave="3211" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19A97E33-5802-441F-8D15-9AF6A1573D37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="29" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="512">
   <si>
     <t>Semifinal</t>
   </si>
@@ -777,9 +777,6 @@
     <t>3-6 6-3 6-1</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>Louisa Chirico (USA)</t>
   </si>
   <si>
@@ -951,9 +948,6 @@
     <t>5-7 6-4 6-4</t>
   </si>
   <si>
-    <t>INERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>Chloé Paquet (FRANCE)</t>
   </si>
   <si>
@@ -1326,9 +1320,6 @@
     <t>7-6(6) 6-2</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>Won</t>
   </si>
   <si>
@@ -1579,6 +1570,18 @@
   </si>
   <si>
     <t>Viktória Hrunčáková (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -4106,10 +4109,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4448,7 +4447,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -4468,7 +4467,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -4530,7 +4529,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -4561,8 +4560,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,7 +4596,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -4606,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -4660,7 +4659,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,7 +4675,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,7 +4693,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -4708,7 +4707,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -4728,7 +4727,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4742,7 +4741,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4767,13 +4766,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,12 +4783,12 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -4812,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -4832,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4860,7 +4859,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
@@ -4894,7 +4893,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4902,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>22</v>
@@ -4922,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,7 +4954,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -4964,7 +4963,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
@@ -4978,13 +4977,13 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>394</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,13 +4991,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -5017,7 +5016,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -5026,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -5080,7 +5079,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5088,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -5108,7 +5107,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>22</v>
@@ -5136,7 +5135,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -5164,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -5178,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -5251,10 +5250,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -5268,7 +5267,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -5282,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
@@ -5293,7 +5292,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -5308,12 +5307,12 @@
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -5328,7 +5327,7 @@
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -5336,13 +5335,13 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +5355,7 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5364,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -5390,12 +5389,12 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D66" t="s">
         <v>225</v>
@@ -5404,7 +5403,7 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -5426,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
@@ -5437,7 +5436,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -5446,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -5480,7 +5479,7 @@
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,7 +5498,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -5508,7 +5507,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
@@ -5528,7 +5527,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,7 +5541,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5556,7 +5555,7 @@
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5570,18 +5569,18 @@
         <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -5595,7 +5594,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -5609,16 +5608,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,7 +5631,7 @@
         <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5651,7 +5650,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>509</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -5663,12 +5662,12 @@
         <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>22</v>
@@ -5735,7 +5734,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -5754,7 +5753,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -5763,13 +5762,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -5801,7 +5800,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,7 +5836,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,7 +5844,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -5859,7 +5858,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -5879,7 +5878,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5893,7 +5892,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5907,12 +5906,12 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5935,13 +5934,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -5955,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -5985,8 +5984,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D30"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -6064,7 +6063,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6075,10 +6074,10 @@
         <v>221</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,7 +6105,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -6120,13 +6119,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6168,12 +6167,12 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -6202,13 +6201,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6236,7 +6235,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6250,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6278,12 +6277,12 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -6292,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -6312,7 +6311,7 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -6331,7 +6330,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -6346,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6360,7 +6359,7 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6374,7 +6373,7 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6388,12 +6387,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -6416,13 +6415,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6430,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>22</v>
@@ -6450,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6458,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -6478,12 +6477,12 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
@@ -6492,13 +6491,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6506,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -6520,13 +6519,13 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6540,13 +6539,13 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
         <v>450</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6554,13 +6553,13 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6574,13 +6573,13 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6588,7 +6587,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -6602,7 +6601,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -6616,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -6630,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -6650,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6664,12 +6663,12 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -6678,7 +6677,7 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -6689,7 +6688,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -6698,13 +6697,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -6726,7 +6725,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -6754,7 +6753,7 @@
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
@@ -6774,13 +6773,13 @@
         <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -6788,13 +6787,13 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -6808,7 +6807,7 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6860,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -6870,13 +6869,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6898,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -6912,7 +6911,7 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -6938,7 +6937,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6946,7 +6945,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -7002,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -7022,7 +7021,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -7038,7 +7037,7 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -7057,10 +7056,10 @@
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>131</v>
@@ -7371,7 +7370,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B16" s="6">
         <f>AVERAGE(B2:B14)</f>
@@ -7462,7 +7461,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7510,7 +7509,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7533,7 +7532,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -7586,7 +7585,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7666,8 +7665,8 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7762,7 +7761,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7866,7 +7865,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -7947,7 +7946,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -8044,7 +8043,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -8140,7 +8139,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8218,7 +8217,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -8247,12 +8246,12 @@
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -8303,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -8328,7 +8327,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8390,7 +8389,7 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
@@ -8453,7 +8452,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,7 +8575,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -8610,7 +8609,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -8644,7 +8643,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -8664,7 +8663,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -8726,7 +8725,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -8897,13 +8896,13 @@
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -9004,7 +9003,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9029,7 +9028,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -9049,7 +9048,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -9111,7 +9110,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -9173,7 +9172,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -9236,7 +9235,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -9284,7 +9283,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>243</v>
+        <v>508</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -9293,13 +9292,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -9307,7 +9306,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -9327,7 +9326,7 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,7 +9334,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -9375,7 +9374,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
@@ -9409,7 +9408,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>22</v>
@@ -9423,13 +9422,13 @@
         <v>218</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -9443,13 +9442,13 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
         <v>253</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -9457,7 +9456,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -9471,13 +9470,13 @@
         <v>218</v>
       </c>
       <c r="D46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
         <v>256</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,8 +9594,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9631,7 +9630,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -9640,7 +9639,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -9654,7 +9653,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -9668,13 +9667,13 @@
         <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9682,7 +9681,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -9702,7 +9701,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9710,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -9724,18 +9723,18 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -9744,7 +9743,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -9758,7 +9757,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
@@ -9772,13 +9771,13 @@
         <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9786,7 +9785,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -9800,13 +9799,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9820,7 +9819,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9834,13 +9833,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
         <v>272</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9848,7 +9847,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -9859,7 +9858,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -9868,7 +9867,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
@@ -9882,7 +9881,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>22</v>
@@ -9902,7 +9901,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -9910,7 +9909,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>22</v>
@@ -9930,7 +9929,7 @@
         <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9947,13 +9946,13 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -9992,7 +9991,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -10036,13 +10035,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>282</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,7 +10055,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10070,7 +10069,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -10090,7 +10089,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10104,7 +10103,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10121,7 +10120,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,7 +10134,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -10149,13 +10148,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10163,13 +10162,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10177,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>22</v>
@@ -10191,13 +10190,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
         <v>293</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10205,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -10239,13 +10238,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -10253,7 +10252,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>21</v>
@@ -10264,7 +10263,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -10279,7 +10278,7 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10293,12 +10292,12 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -10307,7 +10306,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -10321,13 +10320,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,7 +10340,7 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10363,13 +10362,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10383,7 +10382,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>21</v>
@@ -10394,7 +10393,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -10409,7 +10408,7 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10417,7 +10416,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -10451,13 +10450,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,7 +10470,7 @@
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10485,7 +10484,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10499,7 +10498,7 @@
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10533,12 +10532,12 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -10547,7 +10546,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>22</v>
@@ -10567,7 +10566,7 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10575,13 +10574,13 @@
         <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10589,13 +10588,13 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -10609,12 +10608,12 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -10623,13 +10622,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10636,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -10651,7 +10650,7 @@
         <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -10671,7 +10670,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +10678,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -10699,13 +10698,13 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10713,13 +10712,13 @@
         <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10738,7 +10737,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -10747,13 +10746,13 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10767,7 +10766,7 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10775,13 +10774,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10795,7 +10794,7 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10817,18 +10816,18 @@
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -10848,13 +10847,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -10868,16 +10867,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10885,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -10908,13 +10907,13 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
@@ -10953,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
@@ -10967,7 +10966,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -10976,7 +10975,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
@@ -10990,13 +10989,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11018,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -11058,7 +11057,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11072,7 +11071,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11097,7 +11096,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -11108,18 +11107,18 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -11148,13 +11147,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11187,7 +11186,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -11224,7 +11223,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>21</v>
@@ -11235,13 +11234,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>509</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>22</v>
@@ -11252,7 +11251,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>22</v>
@@ -11263,7 +11262,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -11272,7 +11271,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>22</v>
@@ -11286,18 +11285,18 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -11312,12 +11311,12 @@
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -11326,7 +11325,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -11340,7 +11339,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>22</v>
@@ -11354,7 +11353,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>22</v>
@@ -11368,13 +11367,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -11388,7 +11387,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>22</v>
@@ -11413,7 +11412,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -11436,7 +11435,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>22</v>
@@ -11450,7 +11449,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>22</v>
@@ -11484,7 +11483,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -11498,7 +11497,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -11518,12 +11517,12 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -11546,7 +11545,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -11560,7 +11559,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>21</v>
@@ -11608,7 +11607,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>21</v>
@@ -11619,7 +11618,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -11628,13 +11627,13 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -11642,13 +11641,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -11690,12 +11689,12 @@
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -11704,7 +11703,7 @@
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>22</v>
@@ -11752,7 +11751,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>22</v>
@@ -11766,7 +11765,7 @@
         <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>22</v>
@@ -11814,13 +11813,13 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11839,7 +11838,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -11868,7 +11867,7 @@
         <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -11882,7 +11881,7 @@
         <v>22</v>
       </c>
       <c r="F80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -11890,13 +11889,13 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11910,21 +11909,21 @@
         <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>22</v>
@@ -11935,7 +11934,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D85" t="s">
         <v>138</v>
@@ -11966,7 +11965,7 @@
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>22</v>
